--- a/projeto_psql/categorias.xlsx
+++ b/projeto_psql/categorias.xlsx
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,13 +130,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -158,96 +163,96 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
